--- a/biology/Botanique/Edme_Mariotte/Edme_Mariotte.xlsx
+++ b/biology/Botanique/Edme_Mariotte/Edme_Mariotte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’abbé Edme Mariotte est un physicien et un botaniste français, né vers 1620 à Dijon et mort le 12 mai 1684 à Paris.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir été ordonné prêtre, il obtient la cure de Saint-Martin-sous-Beaune près de Dijon. Mariotte est surtout connu pour ses travaux sur la reconnaissance, en 1676, de la loi de comportement élastique des gaz formulée par Robert Boyle. En 1660, il découvre la tache aveugle de l’œil.
 Il est membre de la première Académie des sciences de Paris en 1666. Le premier volume de l’Histoire et mémoires de l'Académie (1733) contient plusieurs articles de Mariotte sur les sujets les plus divers comme le mouvement des fluides, la nature de la couleur, les notes de la trompette, le baromètre, la chute des corps, la glace, etc.
@@ -546,7 +560,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Nouvelle découverte touchant la vue (1668)
 Traité du nivellement, avec la description de quelques niveaux nouvellement inventez (1672) (lire en ligne)
@@ -590,10 +606,12 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1908, le glacier Mariotte dans les îles Kerguelen prend son nom[1].
-En 1970, un cratère de la Lune (Mariotte (crater) (en)), large de plus de 70km prend à son tour le nom du physicien[2]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1908, le glacier Mariotte dans les îles Kerguelen prend son nom.
+En 1970, un cratère de la Lune (Mariotte (crater) (en)), large de plus de 70km prend à son tour le nom du physicien. 
 De nombreuses rues en France portent également son nom à Paris, Dijon, Lens, Nantes, Perpignan, Carcassonne, etc.
 </t>
         </is>
